--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_2.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9903666456964298</v>
+        <v>0.9989801819108401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9902042806536615</v>
+        <v>0.9984088979136243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9409545337035439</v>
+        <v>0.9989393704769911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9884744050260555</v>
+        <v>0.9987653438318526</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9836095632575638</v>
+        <v>0.9988761962700561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008992313387000142</v>
+        <v>0.0009519554213902375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009143874027422713</v>
+        <v>0.001485223956321961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01503512233769335</v>
+        <v>0.0003664064651719556</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005582571704857374</v>
+        <v>0.001817417659406534</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01030884702127537</v>
+        <v>0.001091912062289245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0112241953125306</v>
+        <v>0.003507853271910282</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09482780914373241</v>
+        <v>0.03085377483210502</v>
       </c>
       <c r="N2" t="n">
-        <v>1.231200503285684</v>
+        <v>1.024475634139836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09886482529960741</v>
+        <v>0.0321672839028265</v>
       </c>
       <c r="P2" t="n">
-        <v>59.42277026936195</v>
+        <v>63.9139847010801</v>
       </c>
       <c r="Q2" t="n">
-        <v>89.89466589106696</v>
+        <v>94.38588032278511</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9901863747923217</v>
+        <v>0.9989597452711275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9900298433445575</v>
+        <v>0.9983924594393221</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9400700375865928</v>
+        <v>0.9989175738125656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9882593378876139</v>
+        <v>0.9987414049464701</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9833477039554223</v>
+        <v>0.9988541876951448</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009160588363006851</v>
+        <v>0.0009710321274971948</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009306703598558369</v>
+        <v>0.001500568550517496</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01526034720523532</v>
+        <v>0.0003739363694329689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005686742268235926</v>
+        <v>0.001852655771978199</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01047354473673562</v>
+        <v>0.001113296070705584</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01132960292005631</v>
+        <v>0.003542544340163134</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0957109626062075</v>
+        <v>0.03116138840772655</v>
       </c>
       <c r="N3" t="n">
-        <v>1.235527004984278</v>
+        <v>1.02496611349294</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09978557643335975</v>
+        <v>0.03248799322521012</v>
       </c>
       <c r="P3" t="n">
-        <v>59.38568974117913</v>
+        <v>63.87430200639903</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.85758536288414</v>
+        <v>94.34619762810405</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9900025406800806</v>
+        <v>0.9989389981269912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9898518496994487</v>
+        <v>0.9983757700678113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9391691553949807</v>
+        <v>0.9988957753296137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9880399226798494</v>
+        <v>0.998717285358479</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9830808534104377</v>
+        <v>0.9988320419150689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009332189437399054</v>
+        <v>0.0009903986758540966</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009472852853249357</v>
+        <v>0.001516147346244025</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01548974456310751</v>
+        <v>0.0003814669019245303</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005793018875495741</v>
+        <v>0.001888159879343059</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01064138171930162</v>
+        <v>0.001134813390633794</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01143607506164941</v>
+        <v>0.003577298749135064</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09660325790261451</v>
+        <v>0.03147060018261642</v>
       </c>
       <c r="N4" t="n">
-        <v>1.239939023678065</v>
+        <v>1.025464044952212</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1007158585878407</v>
+        <v>0.03281036878551366</v>
       </c>
       <c r="P4" t="n">
-        <v>59.34857125052968</v>
+        <v>63.83480598603151</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.8204668722347</v>
+        <v>94.30670160773653</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9898150221054666</v>
+        <v>0.9989177001428573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9896702511417567</v>
+        <v>0.9983585553839857</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9382511457197759</v>
+        <v>0.9988729897525193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9878162367513583</v>
+        <v>0.9986923016877017</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9828088913239623</v>
+        <v>0.9988090661126783</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009507229795687197</v>
+        <v>0.001010279409169623</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009642367135599458</v>
+        <v>0.001532216497957977</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01572350320097804</v>
+        <v>0.0003893384372523615</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005901364061839018</v>
+        <v>0.001924935919214694</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01081243363140853</v>
+        <v>0.001157137178233528</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01154363840638338</v>
+        <v>0.003612707463604347</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09750502446380492</v>
+        <v>0.03178489278210048</v>
       </c>
       <c r="N5" t="n">
-        <v>1.244439469468802</v>
+        <v>1.025975196571425</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1016560152184551</v>
+        <v>0.03313804147163314</v>
       </c>
       <c r="P5" t="n">
-        <v>59.31140547737604</v>
+        <v>63.79505668729063</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.78330109908106</v>
+        <v>94.26695230899564</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.989623732535472</v>
+        <v>0.9988960505957534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9894849756780689</v>
+        <v>0.998341035857514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9373159839971333</v>
+        <v>0.9988501186503754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9875879198842918</v>
+        <v>0.9986670778021232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9825316740203388</v>
+        <v>0.9987858931437731</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009685790212635411</v>
+        <v>0.001030488311085831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009815313648299122</v>
+        <v>0.001548570206901007</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01596162937369491</v>
+        <v>0.0003972395181758109</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006011952303461954</v>
+        <v>0.001962065556009136</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01098679083857843</v>
+        <v>0.001179652537092474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01165232873568541</v>
+        <v>0.00364830526338847</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09841641231337084</v>
+        <v>0.03210121977566944</v>
       </c>
       <c r="N6" t="n">
-        <v>1.249030419148673</v>
+        <v>1.026494785701919</v>
       </c>
       <c r="O6" t="n">
-        <v>0.10260620273561</v>
+        <v>0.03346783516020547</v>
       </c>
       <c r="P6" t="n">
-        <v>59.27419078811835</v>
+        <v>63.75544500130432</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.74608640982336</v>
+        <v>94.22734062300934</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9894286236661626</v>
+        <v>0.9988739069212493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9892958920155731</v>
+        <v>0.9983230427073563</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9363627290376547</v>
+        <v>0.9988264518527874</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9873550083630434</v>
+        <v>0.9986411062163956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9822490249478077</v>
+        <v>0.9987620123381988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009867915777846164</v>
+        <v>0.001051158459240452</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009991814947425365</v>
+        <v>0.001565366022765228</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01620436274229622</v>
+        <v>0.0004054154810903576</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006124766025547182</v>
+        <v>0.002000295809712038</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0111645643839217</v>
+        <v>0.001202855645401198</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01176213434042219</v>
+        <v>0.003684332842803252</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09933738358667478</v>
+        <v>0.03242157397845533</v>
       </c>
       <c r="N7" t="n">
-        <v>1.253713032012098</v>
+        <v>1.027026233890016</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1035663816626918</v>
+        <v>0.03380182750462858</v>
       </c>
       <c r="P7" t="n">
-        <v>59.23693323045438</v>
+        <v>63.71572485696017</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.7088288521594</v>
+        <v>94.1876204786652</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9892296240034417</v>
+        <v>0.9988512814693198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9891029732602065</v>
+        <v>0.9983046323235499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.935391472219488</v>
+        <v>0.9988022439025438</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9871174055225233</v>
+        <v>0.998614584754958</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9819609253826181</v>
+        <v>0.9987376187990886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01005367322792048</v>
+        <v>0.0010722783254741</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01017189613740554</v>
+        <v>0.001582551307926006</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0164516800385834</v>
+        <v>0.0004137783913105253</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006239852049086923</v>
+        <v>0.002039335482143442</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01134576604383516</v>
+        <v>0.001226556936726984</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01187306428574904</v>
+        <v>0.003720839482130541</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1002680070008399</v>
+        <v>0.0327456611702085</v>
       </c>
       <c r="N8" t="n">
-        <v>1.258489023917399</v>
+        <v>1.027569244736325</v>
       </c>
       <c r="O8" t="n">
-        <v>0.104536623642254</v>
+        <v>0.03413971175908764</v>
       </c>
       <c r="P8" t="n">
-        <v>59.19963443187745</v>
+        <v>63.67593923611993</v>
       </c>
       <c r="Q8" t="n">
-        <v>89.67153005358247</v>
+        <v>94.14783485782495</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9890266276457335</v>
+        <v>0.9988281976286415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9889061076833531</v>
+        <v>0.9982857971549305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9344016207407032</v>
+        <v>0.9987775758797395</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9868748868548467</v>
+        <v>0.9985875087641983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9816671688773788</v>
+        <v>0.998712723415405</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01024316141733091</v>
+        <v>0.001093826077483804</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01035566151199807</v>
+        <v>0.001600133111063914</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01670373221147936</v>
+        <v>0.0004223002388005838</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006357319117392859</v>
+        <v>0.002079191423434738</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01153052566443611</v>
+        <v>0.001250745831117661</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01198514444198935</v>
+        <v>0.00375766583976617</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1012085046689798</v>
+        <v>0.03307304155175033</v>
       </c>
       <c r="N9" t="n">
-        <v>1.263360936502397</v>
+        <v>1.028123256912604</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1055171602432252</v>
+        <v>0.03448102940124254</v>
       </c>
       <c r="P9" t="n">
-        <v>59.16228994971505</v>
+        <v>63.63614713230955</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.63418557142006</v>
+        <v>94.10804275401456</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9888195613722263</v>
+        <v>0.9988049742161713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9887052516705939</v>
+        <v>0.9982669222492584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9333928395230061</v>
+        <v>0.9987537455842281</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9866275410082355</v>
+        <v>0.998560849862379</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9813677217371531</v>
+        <v>0.9986882929032806</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01043644869449094</v>
+        <v>0.001115504113634658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01054315178334882</v>
+        <v>0.001617752006996203</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01696060458409967</v>
+        <v>0.000430532683921987</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006477124292546734</v>
+        <v>0.002118433408528707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0117188644383232</v>
+        <v>0.001274483046225347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0120983816093488</v>
+        <v>0.003794153448904227</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1021589383974351</v>
+        <v>0.03339916336728599</v>
       </c>
       <c r="N10" t="n">
-        <v>1.26833052706657</v>
+        <v>1.028680618811888</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1065080559031699</v>
+        <v>0.03482103489763077</v>
       </c>
       <c r="P10" t="n">
-        <v>59.12490183551852</v>
+        <v>63.59689771278745</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.59679745722354</v>
+        <v>94.06879333449247</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9886083308083303</v>
+        <v>0.9987810898600292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9885002518070551</v>
+        <v>0.9982473892957081</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9323647797937646</v>
+        <v>0.9987286814271904</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9863749526386244</v>
+        <v>0.9985331346175266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9810623534307501</v>
+        <v>0.998662842862851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01063362315393764</v>
+        <v>0.00113779911169123</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01073451015750814</v>
+        <v>0.00163598516173777</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01722238596663622</v>
+        <v>0.0004391913804634993</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006599468751843997</v>
+        <v>0.002159230333801616</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01191092735924011</v>
+        <v>0.001299210857132557</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01221280092067107</v>
+        <v>0.003831419090714726</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1031194605975887</v>
+        <v>0.03373127794334554</v>
       </c>
       <c r="N11" t="n">
-        <v>1.273400060600072</v>
+        <v>1.029253843359299</v>
       </c>
       <c r="O11" t="n">
-        <v>0.107509469521939</v>
+        <v>0.03516728827876513</v>
       </c>
       <c r="P11" t="n">
-        <v>59.08746860474935</v>
+        <v>63.55731897274583</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.55936422645436</v>
+        <v>94.02921459445085</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9883928836514863</v>
+        <v>0.9987565774101854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9882910866809272</v>
+        <v>0.9982272671959744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9313173824910311</v>
+        <v>0.9987025551731102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9861174333357876</v>
+        <v>0.9985043830864446</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9807511719811907</v>
+        <v>0.9986364190226452</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01083473361781436</v>
+        <v>0.001160680407648271</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01092975662146058</v>
+        <v>0.001654768258581051</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01748909139840808</v>
+        <v>0.0004482169904413952</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006724201572728431</v>
+        <v>0.002201552675576999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01210664648556826</v>
+        <v>0.001324884833009197</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01232839203066758</v>
+        <v>0.003869322859383947</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1040900265050132</v>
+        <v>0.03406875999575375</v>
       </c>
       <c r="N12" t="n">
-        <v>1.27857079236433</v>
+        <v>1.02984214215555</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1085213544293911</v>
+        <v>0.03551913764082851</v>
       </c>
       <c r="P12" t="n">
-        <v>59.04999645927701</v>
+        <v>63.51749777500896</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.52189208098203</v>
+        <v>93.98939339671398</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9881731212885491</v>
+        <v>0.9987316984271055</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9880776508025347</v>
+        <v>0.9982068364791085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9302496220922866</v>
+        <v>0.9986763496962242</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9858546441683381</v>
+        <v>0.9984754505456374</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9804338392870661</v>
+        <v>0.9986098439840401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01103987213716336</v>
+        <v>0.001183903846292236</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01112898964518776</v>
+        <v>0.001673839435970643</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01776098201473188</v>
+        <v>0.0004572699688336172</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006851486921021772</v>
+        <v>0.002244141464222121</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01230623446787683</v>
+        <v>0.001350705716527869</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01244516673858149</v>
+        <v>0.003907355272878692</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1050707958338727</v>
+        <v>0.03440790383461678</v>
       </c>
       <c r="N13" t="n">
-        <v>1.283845089074823</v>
+        <v>1.030439237749468</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1095438771390525</v>
+        <v>0.03587271953503647</v>
       </c>
       <c r="P13" t="n">
-        <v>59.01248363995788</v>
+        <v>63.47787591343987</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.48437926166289</v>
+        <v>93.94977153514489</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9879488844737742</v>
+        <v>0.9987061212101587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9878598252339843</v>
+        <v>0.9981857179161409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9291609760216721</v>
+        <v>0.9986488656063657</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9855862910694981</v>
+        <v>0.9984453508041573</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9801101363328025</v>
+        <v>0.9985821574869667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01124918736089713</v>
+        <v>0.001207779055601992</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01133232025199222</v>
+        <v>0.001693552687503161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01803819088241964</v>
+        <v>0.0004667646585391744</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006981467231789381</v>
+        <v>0.00228844837583092</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01250982905710451</v>
+        <v>0.001377606517185047</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01256318221128285</v>
+        <v>0.003946144380579383</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1060621862913316</v>
+        <v>0.0347531157682587</v>
       </c>
       <c r="N14" t="n">
-        <v>1.28922677262942</v>
+        <v>1.031053090956192</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1105774731407466</v>
+        <v>0.03623262785538074</v>
       </c>
       <c r="P14" t="n">
-        <v>58.97491877505534</v>
+        <v>63.43794419437934</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.44681439676036</v>
+        <v>93.90983981608436</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9877201545568755</v>
+        <v>0.9986800613404622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9876375353198259</v>
+        <v>0.9981641567631598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9280512457791804</v>
+        <v>0.9986208952610471</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9853125818391204</v>
+        <v>0.9984146858590824</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9797801029505351</v>
+        <v>0.9985539564048976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0114626966982391</v>
+        <v>0.00123210480006762</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01153981812945955</v>
+        <v>0.00171367907738563</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01832076854678982</v>
+        <v>0.0004764273306932672</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007114041854472113</v>
+        <v>0.002333587268861751</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01271740520063097</v>
+        <v>0.001405007299777509</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01268241479686894</v>
+        <v>0.00398524125116713</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1070639841321025</v>
+        <v>0.03510135040233665</v>
       </c>
       <c r="N15" t="n">
-        <v>1.294716290634989</v>
+        <v>1.031678527828908</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1116219195896065</v>
+        <v>0.03659568755877646</v>
       </c>
       <c r="P15" t="n">
-        <v>58.93731456279014</v>
+        <v>63.39806270499736</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.40921018449515</v>
+        <v>93.86995832670237</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9874868568552646</v>
+        <v>0.9986534360806633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9874107440002418</v>
+        <v>0.9981420855742088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9269211237968614</v>
+        <v>0.9985923258442506</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9850333265910353</v>
+        <v>0.9983833621173311</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9794438061915953</v>
+        <v>0.9985251497853169</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01168046986210733</v>
+        <v>0.001256958311376107</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01175151787130289</v>
+        <v>0.001734281563458246</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01860853868946889</v>
+        <v>0.0004862969588653863</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007249302762903963</v>
+        <v>0.002379695912617106</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01292892072618643</v>
+        <v>0.001432996435741246</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01280286412011049</v>
+        <v>0.004024800096661349</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1080762224640893</v>
+        <v>0.03545360787530807</v>
       </c>
       <c r="N16" t="n">
-        <v>1.300315435473649</v>
+        <v>1.032317534064082</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1126772510030082</v>
+        <v>0.03696294136164577</v>
       </c>
       <c r="P16" t="n">
-        <v>58.89967414894205</v>
+        <v>63.35812103019629</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.37156977064707</v>
+        <v>93.8300166519013</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9872488937382577</v>
+        <v>0.9986262320577073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9871793521547172</v>
+        <v>0.9981194712586008</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9257685816294756</v>
+        <v>0.9985629131305848</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9847485160145372</v>
+        <v>0.9983512384585801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9791008318565018</v>
+        <v>0.9984955873125311</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01190259798645956</v>
+        <v>0.001282352072686895</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01196751200217203</v>
+        <v>0.001755391034424548</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01890201782635964</v>
+        <v>0.0004964579134792205</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00738725446684606</v>
+        <v>0.002426982036644982</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01314463614660285</v>
+        <v>0.001461719975062102</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01292454229374554</v>
+        <v>0.004064854575330334</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1090990283479168</v>
+        <v>0.03580994376827329</v>
       </c>
       <c r="N17" t="n">
-        <v>1.306026550281814</v>
+        <v>1.032970430615025</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1137435998508103</v>
+        <v>0.0373344472112915</v>
       </c>
       <c r="P17" t="n">
-        <v>58.86199716900545</v>
+        <v>63.31811866101211</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.33389279071046</v>
+        <v>93.79001428271712</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9870061288877411</v>
+        <v>0.9985986976272535</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9869432105968615</v>
+        <v>0.9980966254427236</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9245938043309012</v>
+        <v>0.9985339496294207</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9844578423007492</v>
+        <v>0.998319199144802</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9787510988823914</v>
+        <v>0.9984661685899338</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01212920831827154</v>
+        <v>0.001308054254893665</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01218793978101381</v>
+        <v>0.001776716600730581</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01920115883601698</v>
+        <v>0.0005064636825534634</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007528046057528114</v>
+        <v>0.002474144004614517</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01336460244677255</v>
+        <v>0.00149030384358399</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0130474893688857</v>
+        <v>0.004104804719656198</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1101326850588486</v>
+        <v>0.03616703270789111</v>
       </c>
       <c r="N18" t="n">
-        <v>1.311852906694214</v>
+        <v>1.033631256945916</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1148212614678909</v>
+        <v>0.03770673816634487</v>
       </c>
       <c r="P18" t="n">
-        <v>58.82427764916113</v>
+        <v>63.27842909506174</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.29617327086615</v>
+        <v>93.75032471676676</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9867585061426333</v>
+        <v>0.9985703904788485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9867022536364792</v>
+        <v>0.9980730028681377</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9233965049816395</v>
+        <v>0.9985033978243878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9841613381685028</v>
+        <v>0.9982858128504027</v>
       </c>
       <c r="F19" t="n">
-        <v>0.978394561787199</v>
+        <v>0.9984354471704123</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01236035328144737</v>
+        <v>0.001334477735389536</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01241286252674251</v>
+        <v>0.001798767237195247</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01950603477857637</v>
+        <v>0.0005170181491639622</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007671661687158856</v>
+        <v>0.002523288732182328</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01358884823286761</v>
+        <v>0.001520153440673145</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01317170190693865</v>
+        <v>0.004145603122223199</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1111771257113952</v>
+        <v>0.03653050417650344</v>
       </c>
       <c r="N19" t="n">
-        <v>1.317795852576801</v>
+        <v>1.034310628507635</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1159101661213066</v>
+        <v>0.03808568336786569</v>
       </c>
       <c r="P19" t="n">
-        <v>58.78652248943939</v>
+        <v>63.23843054623669</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.25841811114441</v>
+        <v>93.7103261679417</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9865058997219174</v>
+        <v>0.9985415406299241</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9864563833014025</v>
+        <v>0.9980489110226464</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9221759739911866</v>
+        <v>0.9984723676399593</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9838588583396382</v>
+        <v>0.998251849374333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9780310209899469</v>
+        <v>0.9984042034926986</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01259615028704532</v>
+        <v>0.001361407802998453</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01264237169207629</v>
+        <v>0.001821255917451656</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01981682634157751</v>
+        <v>0.0005277378773474962</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007818171723102991</v>
+        <v>0.002573283072936001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01381749903234025</v>
+        <v>0.001550510475141749</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01329719659310677</v>
+        <v>0.004186740181759139</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1122325723087791</v>
+        <v>0.03689726010150961</v>
       </c>
       <c r="N20" t="n">
-        <v>1.323858406673983</v>
+        <v>1.035003024881822</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1170105452654167</v>
+        <v>0.0384680528518888</v>
       </c>
       <c r="P20" t="n">
-        <v>58.74872808896707</v>
+        <v>63.19847193073632</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.22062371067209</v>
+        <v>93.67036755244133</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9862481928810864</v>
+        <v>0.9985120009871976</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9862054795362497</v>
+        <v>0.9980241415851794</v>
       </c>
       <c r="D21" t="n">
-        <v>0.920931647167712</v>
+        <v>0.9984403092208072</v>
       </c>
       <c r="E21" t="n">
-        <v>0.98355003765214</v>
+        <v>0.99821688739718</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9776602216753285</v>
+        <v>0.9983720206572788</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01283670831093806</v>
+        <v>0.001388981762843165</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01287657934344397</v>
+        <v>0.001844377100074404</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02013367718877177</v>
+        <v>0.0005388128208463552</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007967753036327976</v>
+        <v>0.002624747210341191</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01405071511254987</v>
+        <v>0.001581780015593773</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01342399303681552</v>
+        <v>0.004228476770997215</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1132991981919469</v>
+        <v>0.03726904563901745</v>
       </c>
       <c r="N21" t="n">
-        <v>1.330043370853925</v>
+        <v>1.035711976307257</v>
       </c>
       <c r="O21" t="n">
-        <v>0.118122579620651</v>
+        <v>0.03885566606943051</v>
       </c>
       <c r="P21" t="n">
-        <v>58.71089275132634</v>
+        <v>63.15836868999734</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.18278837303136</v>
+        <v>93.63026431170236</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9859853219955008</v>
+        <v>0.9984820430946195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9859494319554697</v>
+        <v>0.9979990259732904</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9196628883037409</v>
+        <v>0.9984083612794774</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9832349837682609</v>
+        <v>0.998181757097829</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9772820765128171</v>
+        <v>0.9983397299583856</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01308208674393397</v>
+        <v>0.001416946140565344</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0131155885209123</v>
+        <v>0.001867821421324887</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02045674932171187</v>
+        <v>0.0005498495985318809</v>
       </c>
       <c r="J22" t="n">
-        <v>0.008120353479222655</v>
+        <v>0.002676459118537013</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01428855140046726</v>
+        <v>0.001613154358534447</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01355208538321539</v>
+        <v>0.004270282816222212</v>
       </c>
       <c r="M22" t="n">
-        <v>0.114376950230079</v>
+        <v>0.03764234504604281</v>
       </c>
       <c r="N22" t="n">
-        <v>1.33635227210798</v>
+        <v>1.036430965729132</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1192462137943006</v>
+        <v>0.03924485760504923</v>
       </c>
       <c r="P22" t="n">
-        <v>58.6730228173595</v>
+        <v>63.11850265695406</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.14491843906451</v>
+        <v>93.59039827865908</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9857171559906284</v>
+        <v>0.9984514708665142</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9856882025756283</v>
+        <v>0.9979733526947527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9183698564615038</v>
+        <v>0.9983756145633343</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9829137091319372</v>
+        <v>0.998145872121503</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9768966224926658</v>
+        <v>0.9983067255904545</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01333240793835518</v>
+        <v>0.001445483973535889</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01335943468034979</v>
+        <v>0.001891786299913081</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0207860022373711</v>
+        <v>0.0005611623220113645</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008275967024404774</v>
+        <v>0.002729281913550562</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01453098463088794</v>
+        <v>0.001645222117780963</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01368151388746062</v>
+        <v>0.00431247652886543</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1154660466905972</v>
+        <v>0.03801952095352977</v>
       </c>
       <c r="N23" t="n">
-        <v>1.342788256224919</v>
+        <v>1.037164699203659</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1203816753458836</v>
+        <v>0.03963809067177968</v>
       </c>
       <c r="P23" t="n">
-        <v>58.63511504113657</v>
+        <v>63.07862216742316</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.10701066284159</v>
+        <v>93.55051778912818</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9854435926557401</v>
+        <v>0.9984202568066052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9854215469957239</v>
+        <v>0.9979470894703801</v>
       </c>
       <c r="D24" t="n">
-        <v>0.917051870572748</v>
+        <v>0.9983423285551949</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9825853851443549</v>
+        <v>0.9981092119013015</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9765034026924019</v>
+        <v>0.9982730381038197</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01358776730343086</v>
+        <v>0.001474620928322171</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0136083459593633</v>
+        <v>0.001916301867042544</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02112160936048712</v>
+        <v>0.0005726613500107445</v>
       </c>
       <c r="J24" t="n">
-        <v>0.008434995014477895</v>
+        <v>0.002783245869922153</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01477830218748251</v>
+        <v>0.001677953609966449</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01381227988886317</v>
+        <v>0.004355132194830229</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1165665788441561</v>
+        <v>0.03840079332933333</v>
       </c>
       <c r="N24" t="n">
-        <v>1.349353776262237</v>
+        <v>1.037913836641476</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1215290594316351</v>
+        <v>0.04003559460196381</v>
       </c>
       <c r="P24" t="n">
-        <v>58.59717070796543</v>
+        <v>63.03870863993523</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.06906632967045</v>
+        <v>93.51060426164025</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9851644919739772</v>
+        <v>0.998388482509963</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9851494562304443</v>
+        <v>0.9979203240242708</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9157079830013226</v>
+        <v>0.998308617231085</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9822503752865885</v>
+        <v>0.9980720731440627</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9761023652435814</v>
+        <v>0.9982389125154945</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01384829553875251</v>
+        <v>0.001504280839507176</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01386233074534764</v>
+        <v>0.001941286236118349</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02146381199367556</v>
+        <v>0.0005843073082227593</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00859726139265991</v>
+        <v>0.002837914234277843</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01503053669316773</v>
+        <v>0.001711110771250301</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01394442414720175</v>
+        <v>0.004398015285060421</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1176787811746557</v>
+        <v>0.03878505948825109</v>
       </c>
       <c r="N25" t="n">
-        <v>1.356052192624548</v>
+        <v>1.038676419760887</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1226886105179203</v>
+        <v>0.04043621976680732</v>
       </c>
       <c r="P25" t="n">
-        <v>58.55918623943209</v>
+        <v>62.99888068498068</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.03108186113711</v>
+        <v>93.47077630668569</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9848798196033455</v>
+        <v>0.9983562657528782</v>
       </c>
       <c r="C26" t="n">
-        <v>0.984871865499073</v>
+        <v>0.9978931911303752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9143382205672758</v>
+        <v>0.9982749354766929</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9819088876308976</v>
+        <v>0.9980346743055097</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9756935956943463</v>
+        <v>0.9982045951728542</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01411402470106431</v>
+        <v>0.00153435376809371</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01412144950825784</v>
+        <v>0.001966613601573524</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02181260330757711</v>
+        <v>0.0005959430512412929</v>
       </c>
       <c r="J26" t="n">
-        <v>0.008762665376448002</v>
+        <v>0.002892965439124121</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01528763434201256</v>
+        <v>0.001744454245182707</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01407788819353123</v>
+        <v>0.004440948204716993</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1188024608375783</v>
+        <v>0.03917082802410117</v>
       </c>
       <c r="N26" t="n">
-        <v>1.362884329519709</v>
+        <v>1.039449621930924</v>
       </c>
       <c r="O26" t="n">
-        <v>0.123860127550431</v>
+        <v>0.04083841126787949</v>
       </c>
       <c r="P26" t="n">
-        <v>58.52117263258839</v>
+        <v>62.95929196914413</v>
       </c>
       <c r="Q26" t="n">
-        <v>88.99306825429341</v>
+        <v>93.43118759084913</v>
       </c>
     </row>
   </sheetData>
